--- a/data/trans_orig/iP30KDB7_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDB7_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F52EAA2-D781-4BED-96A7-FC4F1414F505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D91C44E-8226-43DF-90DD-BB64BAC1CACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1C44C004-678C-49BA-A39E-0EAA034B78E9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{225D5B07-3656-48D2-9BB2-644381A9AD28}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Menores según si toman 2 yogures y/o 40 g de queso cada día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,259 +65,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2BC585-BE38-419D-B7AF-B026543A9F56}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04C32C3-7181-4CEB-8093-0DD2CC01792D}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -850,96 +829,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D4" s="7">
+        <v>23184</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>30575</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>53758</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D5" s="7">
+        <v>30515</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>27770</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>58285</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -948,151 +931,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>58345</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>112043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>374</v>
+      </c>
+      <c r="D7" s="7">
+        <v>253817</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>335</v>
+      </c>
+      <c r="I7" s="7">
+        <v>273215</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7">
+        <v>709</v>
+      </c>
+      <c r="N7" s="7">
+        <v>527032</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="7">
-        <v>29311</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7">
-        <v>32</v>
-      </c>
-      <c r="I7" s="7">
-        <v>24784</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="7">
-        <v>70</v>
-      </c>
-      <c r="N7" s="7">
-        <v>54095</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="D8" s="7">
-        <v>26202</v>
+        <v>198015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>35</v>
+        <v>295</v>
       </c>
       <c r="I8" s="7">
-        <v>25370</v>
+        <v>232035</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>74</v>
+        <v>546</v>
       </c>
       <c r="N8" s="7">
-        <v>51572</v>
+        <v>430050</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1101,153 +1086,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>625</v>
       </c>
       <c r="D9" s="7">
-        <v>55513</v>
+        <v>451832</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>505250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>144</v>
+        <v>1255</v>
       </c>
       <c r="N9" s="7">
-        <v>105667</v>
+        <v>957082</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>335</v>
+        <v>128</v>
       </c>
       <c r="D10" s="7">
-        <v>262369</v>
+        <v>83442</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>374</v>
+        <v>132</v>
       </c>
       <c r="I10" s="7">
-        <v>257474</v>
+        <v>101804</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>709</v>
+        <v>260</v>
       </c>
       <c r="N10" s="7">
-        <v>519843</v>
+        <v>185245</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>295</v>
+        <v>94</v>
       </c>
       <c r="D11" s="7">
-        <v>218957</v>
+        <v>62744</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="I11" s="7">
-        <v>183780</v>
+        <v>79335</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>546</v>
+        <v>195</v>
       </c>
       <c r="N11" s="7">
-        <v>402737</v>
+        <v>142079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1256,153 +1241,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>481326</v>
+        <v>146186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>625</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>441254</v>
+        <v>181139</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1255</v>
+        <v>455</v>
       </c>
       <c r="N12" s="7">
-        <v>922580</v>
+        <v>327324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>132</v>
+        <v>534</v>
       </c>
       <c r="D13" s="7">
-        <v>96554</v>
+        <v>360443</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>128</v>
+        <v>505</v>
       </c>
       <c r="I13" s="7">
-        <v>84383</v>
+        <v>405593</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>260</v>
+        <v>1039</v>
       </c>
       <c r="N13" s="7">
-        <v>180937</v>
+        <v>766036</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>101</v>
+        <v>380</v>
       </c>
       <c r="D14" s="7">
-        <v>75940</v>
+        <v>291274</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>94</v>
+        <v>435</v>
       </c>
       <c r="I14" s="7">
-        <v>63647</v>
+        <v>339140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>195</v>
+        <v>815</v>
       </c>
       <c r="N14" s="7">
-        <v>139587</v>
+        <v>630414</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,216 +1396,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>233</v>
+        <v>914</v>
       </c>
       <c r="D15" s="7">
-        <v>172494</v>
+        <v>651717</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>940</v>
       </c>
       <c r="I15" s="7">
-        <v>148030</v>
+        <v>744733</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>455</v>
+        <v>1854</v>
       </c>
       <c r="N15" s="7">
-        <v>320524</v>
+        <v>1396450</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>505</v>
-      </c>
-      <c r="D16" s="7">
-        <v>388234</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>535</v>
-      </c>
-      <c r="I16" s="7">
-        <v>367812</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1040</v>
-      </c>
-      <c r="N16" s="7">
-        <v>756046</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>435</v>
-      </c>
-      <c r="D17" s="7">
-        <v>321099</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>380</v>
-      </c>
-      <c r="I17" s="7">
-        <v>272797</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>815</v>
-      </c>
-      <c r="N17" s="7">
-        <v>593896</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>940</v>
-      </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
-      <c r="I18" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
